--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tusha\Desktop\Software Testing\Automation note\parametrization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A157593F-40AE-49A0-8D71-BF18520C2E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{45414179-9380-497E-B038-6F5091469FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="hidden" xWindow="384" yWindow="384" windowWidth="23280" windowHeight="13224" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
